--- a/wjj/7/7_data.xlsx
+++ b/wjj/7/7_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\共享文件\Circuit-Experiment\wjj\7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Circuit-Experiment\wjj\7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E44508A3-E47C-452D-9A30-EE4865ABEB49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A54BFA-6C08-466E-9CCD-56F3EA4D4922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19095" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,10 +18,21 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$2:$H$7</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -543,20 +554,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H7"/>
+  <dimension ref="B1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="12.1640625" customWidth="1"/>
-    <col min="3" max="8" width="11.4140625" customWidth="1"/>
+    <col min="2" max="2" width="12.1328125" customWidth="1"/>
+    <col min="3" max="8" width="11.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
@@ -579,60 +590,128 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="8"/>
       <c r="C3" s="1">
-        <v>800</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="4"/>
+        <v>796</v>
+      </c>
+      <c r="D3" s="1">
+        <v>9.56</v>
+      </c>
+      <c r="E3" s="1">
+        <v>12.26</v>
+      </c>
+      <c r="F3" s="1">
+        <f>12*E3</f>
+        <v>147.12</v>
+      </c>
+      <c r="G3" s="1">
+        <f>D3*E3</f>
+        <v>117.2056</v>
+      </c>
+      <c r="H3" s="4">
+        <f>G3/F3</f>
+        <v>0.79666666666666663</v>
+      </c>
+      <c r="I3">
+        <v>198.64</v>
+      </c>
     </row>
-    <row r="4" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="8"/>
       <c r="C4" s="1">
-        <v>500</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="4"/>
+        <v>496.2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>8.56</v>
+      </c>
+      <c r="E4" s="1">
+        <v>17.23</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" ref="F4:F7" si="0">12*E4</f>
+        <v>206.76</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" ref="G4:G7" si="1">D4*E4</f>
+        <v>147.48880000000003</v>
+      </c>
+      <c r="H4" s="4">
+        <f t="shared" ref="H4:H7" si="2">G4/F4</f>
+        <v>0.71333333333333349</v>
+      </c>
     </row>
-    <row r="5" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="8"/>
       <c r="C5" s="1">
-        <v>200</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="4"/>
+        <v>199</v>
+      </c>
+      <c r="D5" s="1">
+        <v>5.99</v>
+      </c>
+      <c r="E5" s="1">
+        <v>30.07</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="0"/>
+        <v>360.84000000000003</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="1"/>
+        <v>180.11930000000001</v>
+      </c>
+      <c r="H5" s="4">
+        <f t="shared" si="2"/>
+        <v>0.49916666666666665</v>
+      </c>
     </row>
-    <row r="6" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="8"/>
       <c r="C6" s="1">
-        <v>100</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="4"/>
+        <v>98.73</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3.97</v>
+      </c>
+      <c r="E6" s="1">
+        <v>40.229999999999997</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>482.76</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="1"/>
+        <v>159.7131</v>
+      </c>
+      <c r="H6" s="4">
+        <f t="shared" si="2"/>
+        <v>0.33083333333333331</v>
+      </c>
     </row>
-    <row r="7" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:9" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B7" s="9"/>
       <c r="C7" s="5">
-        <v>50</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="6"/>
+        <v>50.82</v>
+      </c>
+      <c r="D7" s="5">
+        <v>2.44</v>
+      </c>
+      <c r="E7" s="5">
+        <v>47.91</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="0"/>
+        <v>574.91999999999996</v>
+      </c>
+      <c r="G7" s="5">
+        <f t="shared" si="1"/>
+        <v>116.90039999999999</v>
+      </c>
+      <c r="H7" s="6">
+        <f t="shared" si="2"/>
+        <v>0.20333333333333334</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
